--- a/lemmagen-analyzer-testcase.xlsx
+++ b/lemmagen-analyzer-testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\theteam247\es-slovak-slovene-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04F9EE-F6AB-42D6-90AD-66B3C0406926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FC97EE-F06D-40EA-8AFA-6CFAC3E583F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2958FC3E-9125-42DC-98EC-A5BDD6DDB7FB}"/>
   </bookViews>
@@ -452,12 +452,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="2" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
